--- a/_CONCAT_Symal_viva.xlsx
+++ b/_CONCAT_Symal_viva.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86776488-1743-460D-98B8-E215685BD87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08144651-3C0A-44A8-868B-D1630D7C0B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="1140" windowWidth="29265" windowHeight="19365" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
+    <workbookView xWindow="330" yWindow="405" windowWidth="29070" windowHeight="19620" xr2:uid="{9D717462-EC9A-4D8E-92EA-87391A4D97B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Acceptance</t>
+  </si>
+  <si>
+    <t>Set out</t>
+  </si>
+  <si>
+    <t>Composite Drawings</t>
+  </si>
+  <si>
+    <t>Is the position of the pipe in accordance with the drawings?_x000D_
+IFC and latest available revision used?</t>
+  </si>
+  <si>
+    <t>☐ Yes  ☐ No  ☐ N/A</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>IFC Submission &amp; Approval</t>
+  </si>
+  <si>
+    <t>Is IFC Construction Drawing and Most Current Revision Approved by the client?</t>
+  </si>
+  <si>
+    <t>Permits</t>
+  </si>
+  <si>
+    <t>Symal Safety Procedure</t>
+  </si>
+  <si>
+    <t>Have the below permits been created._x000D_
+-GPP_x000D_
+-Working at Heights_x000D_
+-Hot Works_x000D_
+-Confined Space</t>
+  </si>
+  <si>
+    <t>Determine Lot Size</t>
+  </si>
+  <si>
+    <t>What is the lot size?</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Have the provided materials been accepted, and checklist completed?_x000D_
+Have the materials and tag numbers/heat numbers been verified?</t>
+  </si>
+  <si>
+    <t>☐ Material Inspection Checklist</t>
+  </si>
+  <si>
+    <t>Electrical and Earthing Pre- Qualification</t>
+  </si>
+  <si>
+    <t>Welder Qualifications and tickets._x000D_
+This ITP</t>
+  </si>
+  <si>
+    <t>Welding procedures, equipment to be used, welding qualifications and calibration of welding machines to be submitted and approved by the client, has this been completed?</t>
+  </si>
+  <si>
+    <t>☐ Calibration Certificates</t>
+  </si>
+  <si>
+    <t>Bedding and Backfill Materials Approval</t>
+  </si>
+  <si>
+    <t>Has bedding and backfill materials been approved for use?</t>
+  </si>
+  <si>
+    <t>☐ Material Approval</t>
   </si>
 </sst>
 </file>
@@ -108,14 +187,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9569D8B-2D3C-4734-8A88-E4228D8D8D71}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -445,17 +523,17 @@
     <col min="5" max="5" width="7.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="25.85546875" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" customWidth="1"/>
-    <col min="17" max="17" width="53.28515625" customWidth="1"/>
+    <col min="10" max="10" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" customWidth="1"/>
+    <col min="18" max="18" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -463,97 +541,243 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="2"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="I2" t="str">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="str">
         <f>A2&amp;" - "&amp;B2</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="J2" t="str">
+        <v>1.1 - Set out</v>
+      </c>
+      <c r="K2" t="str">
         <f>"Ref docs -  "&amp;C2</f>
-        <v xml:space="preserve">Ref docs -  </v>
-      </c>
-      <c r="K2" t="str">
+        <v>Ref docs -  Composite Drawings</v>
+      </c>
+      <c r="L2" t="str">
         <f>"Acceptance criteria - "&amp;D2</f>
-        <v xml:space="preserve">Acceptance criteria - </v>
-      </c>
-      <c r="L2" t="s">
+        <v>Acceptance criteria - Is the position of the pipe in accordance with the drawings?_x000D_
+IFC and latest available revision used?</v>
+      </c>
+      <c r="M2" t="s">
         <v>0</v>
       </c>
-      <c r="M2" t="str">
-        <f>"Key - "&amp;E2</f>
-        <v xml:space="preserve">Key - </v>
-      </c>
       <c r="N2" t="str">
-        <f>"MDR/VIVA - "&amp;F2</f>
-        <v xml:space="preserve">MDR/VIVA - </v>
-      </c>
-      <c r="Q2" t="str" cm="1">
-        <f t="array" ref="Q2:Q7">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,I2:N40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="Q3" t="str">
-        <v>Ref docs -</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="Q4" t="str">
-        <v>Acceptance criteria -</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+        <f>"Key - "&amp;F2</f>
+        <v>Key - H</v>
+      </c>
+      <c r="O2" t="str">
+        <f>"VIVA - "&amp;G2</f>
+        <v>VIVA - W</v>
+      </c>
+      <c r="P2" t="str">
+        <f>"Remarks / record (eg. test frequency, reports, certificates, checklist etc) - "&amp;H2</f>
+        <v xml:space="preserve">Remarks / record (eg. test frequency, reports, certificates, checklist etc) - </v>
+      </c>
+      <c r="R2" t="str" cm="1">
+        <f t="array" ref="R2:R8">_xlfn.FILTERXML("&lt;t&gt;&lt;s&gt;"&amp;_xlfn.TEXTJOIN("&lt;/s&gt;&lt;s&gt;",,J2:P40)&amp;"&lt;/s&gt;&lt;/t&gt;","//s")</f>
+        <v>1.1 - Set out</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" t="str">
+        <v>Ref docs -  Composite Drawings</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" t="str">
+        <v>Acceptance criteria - Is the position of the pipe in accordance with the drawings?
+IFC and latest available revision used?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="Q5" t="str">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" t="str">
         <v>Acceptance</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="Q6" t="str">
-        <v>Key -</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="Q7" t="str">
-        <v>MDR/VIVA -</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" t="str">
+        <v>Key - H</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R7" t="str">
+        <v>VIVA - W</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" t="str">
+        <v>Remarks / record (eg. test frequency, reports, certificates, checklist etc) -</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
   </sheetData>
